--- a/outputs-r202/test-g__CAG-791.xlsx
+++ b/outputs-r202/test-g__CAG-791.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <t>Row</t>
   </si>
@@ -202,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -212,14 +212,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,1703 +282,1703 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="C2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="D2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="E2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="F2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="G2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="H2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="I2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="J2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="K2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="L2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="M2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="N2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="O2">
-        <v>3.7708994279985143e-13</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="P2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="R2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="S2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="T2">
-        <v>2.2203510647810977e-14</v>
+        <v>0.016955521725274994</v>
       </c>
       <c r="U2">
-        <v>0.99823688433403457</v>
+        <v>0.98297159586986815</v>
       </c>
       <c r="V2">
-        <v>6.3941187231869747e-12</v>
+        <v>3.6141303253933949e-12</v>
       </c>
       <c r="W2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="X2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="Y2">
-        <v>1.5547038602401354e-13</v>
+        <v>1.2307259473207509e-12</v>
       </c>
       <c r="Z2">
-        <v>0.0017042107683655331</v>
+        <v>7.5454726745269856e-06</v>
       </c>
       <c r="AA2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AB2">
-        <v>4.1895968658732996e-05</v>
+        <v>1.6663749855778684e-06</v>
       </c>
       <c r="AC2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AD2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AE2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AF2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AG2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AH2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AI2">
-        <v>1.7005757176969714e-05</v>
+        <v>6.3669834206763905e-05</v>
       </c>
       <c r="AJ2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AK2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AL2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AM2">
-        <v>9.863463867452619e-12</v>
+        <v>9.9884364239278388e-12</v>
       </c>
       <c r="AN2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AO2">
-        <v>3.1542635016062736e-09</v>
+        <v>7.0744640660468405e-10</v>
       </c>
       <c r="AP2">
-        <v>2.2203510647810977e-14</v>
+        <v>2.2202128518221398e-14</v>
       </c>
       <c r="AQ2">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.023781895251279765</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="C3">
-        <v>0.023781895251279765</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="D3">
-        <v>0.023781895251279765</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="E3">
-        <v>0.02378189525127988</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="F3">
-        <v>0.023781895251279883</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="G3">
-        <v>0.023781895251279866</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="H3">
-        <v>0.023781895251279866</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="I3">
-        <v>0.023781895251279866</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="J3">
-        <v>0.023781895251279866</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="K3">
-        <v>0.023781895251279897</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="L3">
-        <v>0.023781895251279897</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="M3">
-        <v>0.023781895251279897</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="N3">
-        <v>0.023781895251279897</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="O3">
-        <v>0.023781895255523398</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="P3">
-        <v>0.023781895251279897</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="Q3">
-        <v>0.023781895251279897</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="R3">
-        <v>0.023781895251279897</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="S3">
-        <v>0.023781895251279883</v>
+        <v>7.8971918493243568e-11</v>
       </c>
       <c r="T3">
-        <v>0.023781895251279883</v>
+        <v>0.23606665995486315</v>
       </c>
       <c r="U3">
-        <v>0.048457559483394246</v>
+        <v>0.23606665995486315</v>
       </c>
       <c r="V3">
-        <v>0.023781895251326152</v>
+        <v>6.649550032873273e-06</v>
       </c>
       <c r="W3">
-        <v>0.023781895251279866</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="X3">
-        <v>0.023781895251328618</v>
+        <v>3.5282848489131724e-10</v>
       </c>
       <c r="Y3">
-        <v>0.023781895251640758</v>
+        <v>1.4678086861449254e-07</v>
       </c>
       <c r="Z3">
-        <v>0.023781912488188013</v>
+        <v>0.13693281141055638</v>
       </c>
       <c r="AA3">
-        <v>0.023781895251279883</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="AB3">
-        <v>0.023781895563694491</v>
+        <v>0.19715239084096195</v>
       </c>
       <c r="AC3">
-        <v>0.023781895251279883</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="AD3">
-        <v>0.023781895251279883</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="AE3">
-        <v>0.023781895251279883</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="AF3">
-        <v>0.023781895251279883</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="AG3">
-        <v>0.023781895251279883</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="AH3">
-        <v>0.023781895251279883</v>
+        <v>7.8971918493243788e-11</v>
       </c>
       <c r="AI3">
-        <v>0.024048508073040133</v>
+        <v>0.1926189572354858</v>
       </c>
       <c r="AJ3">
-        <v>0.023781895251279789</v>
+        <v>7.8971918493243943e-11</v>
       </c>
       <c r="AK3">
-        <v>0.023781895251279789</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="AL3">
-        <v>0.023781895251279789</v>
+        <v>7.8971918493243943e-11</v>
       </c>
       <c r="AM3">
-        <v>0.023781895263498241</v>
+        <v>0.00016085599006835649</v>
       </c>
       <c r="AN3">
-        <v>0.02378189525127988</v>
+        <v>7.8971918493243943e-11</v>
       </c>
       <c r="AO3">
-        <v>0.023781895328690301</v>
+        <v>0.00099486548134199897</v>
       </c>
       <c r="AP3">
-        <v>0.023781895251279807</v>
+        <v>7.8971918493243866e-11</v>
       </c>
       <c r="AQ3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="C4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="E4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="F4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="I4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="J4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="K4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="L4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="M4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="N4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="O4">
-        <v>7.5387657385252748e-13</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="P4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="R4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="S4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="T4">
-        <v>2.2204201596279344e-14</v>
+        <v>0.016955518261341528</v>
       </c>
       <c r="U4">
-        <v>0.99952127219617815</v>
+        <v>0.98297901475760985</v>
       </c>
       <c r="V4">
-        <v>2.8680531120021959e-12</v>
+        <v>5.464665267281928e-12</v>
       </c>
       <c r="W4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="X4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="Y4">
-        <v>1.86685132550261e-13</v>
+        <v>1.319875183318799e-12</v>
       </c>
       <c r="Z4">
-        <v>0.0004505374777387588</v>
+        <v>1.2774284474845857e-05</v>
       </c>
       <c r="AA4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AB4">
-        <v>4.3458668714051121e-06</v>
+        <v>2.7509207826598158e-06</v>
       </c>
       <c r="AC4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AD4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AE4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AF4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AG4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AH4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AI4">
-        <v>2.3843995932224577e-05</v>
+        <v>4.9941026488038856e-05</v>
       </c>
       <c r="AJ4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AK4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AL4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AM4">
-        <v>2.5310255546038706e-12</v>
+        <v>1.2233463266537316e-11</v>
       </c>
       <c r="AN4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AO4">
-        <v>4.5622938799109201e-10</v>
+        <v>7.2957450586623202e-10</v>
       </c>
       <c r="AP4">
-        <v>2.2204201596279344e-14</v>
+        <v>2.2202126023175801e-14</v>
       </c>
       <c r="AQ4">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="C5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="D5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="E5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="F5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="G5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="H5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="I5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="J5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="K5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="L5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="M5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="N5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="O5">
-        <v>8.4086148272571599e-08</v>
+        <v>7.8459570357418336e-07</v>
       </c>
       <c r="P5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="Q5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="R5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="S5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="T5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="U5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="V5">
-        <v>0.99361062986193305</v>
+        <v>0.98312293766383174</v>
       </c>
       <c r="W5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="X5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="Y5">
-        <v>4.6120536811994428e-07</v>
+        <v>9.2820530930463218e-05</v>
       </c>
       <c r="Z5">
-        <v>0.0062631559341605825</v>
+        <v>0.00024506545000370193</v>
       </c>
       <c r="AA5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AB5">
-        <v>4.0963829727353693e-07</v>
+        <v>0.012672210512103101</v>
       </c>
       <c r="AC5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AD5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AE5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AF5">
-        <v>3.3379881853250387e-07</v>
+        <v>0.0035686948510165704</v>
       </c>
       <c r="AG5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AH5">
-        <v>6.3397953084383194e-08</v>
+        <v>4.8231850773760987e-08</v>
       </c>
       <c r="AI5">
-        <v>0.00012473155924790281</v>
+        <v>0.00029742846907052989</v>
       </c>
       <c r="AJ5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AK5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AL5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AM5">
-        <v>1.30517362671243e-07</v>
+        <v>9.6947791415482011e-09</v>
       </c>
       <c r="AN5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AO5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AP5">
-        <v>2.2202091685840576e-14</v>
+        <v>2.2203070883107189e-14</v>
       </c>
       <c r="AQ5">
         <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="C6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="D6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="E6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="F6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="G6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="H6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="I6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="J6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="K6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="L6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="M6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="N6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="O6">
-        <v>3.5678322630310134e-13</v>
+        <v>5.4185950564115908e-14</v>
       </c>
       <c r="P6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="Q6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="R6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="S6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="T6">
-        <v>2.2204392428885768e-14</v>
+        <v>0.016953744889485606</v>
       </c>
       <c r="U6">
-        <v>0.99987427511995874</v>
+        <v>0.98298473171790979</v>
       </c>
       <c r="V6">
-        <v>1.6053787323291503e-12</v>
+        <v>1.2722154198216779e-12</v>
       </c>
       <c r="W6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="X6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="Y6">
-        <v>5.7374213303510711e-13</v>
+        <v>8.6134047400287468e-13</v>
       </c>
       <c r="Z6">
-        <v>6.4809345019113481e-05</v>
+        <v>3.4704912696973674e-06</v>
       </c>
       <c r="AA6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AB6">
-        <v>6.1410406000313022e-06</v>
+        <v>5.0021722194072294e-07</v>
       </c>
       <c r="AC6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AD6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AE6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AF6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AG6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AH6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AI6">
-        <v>5.4762586485047351e-05</v>
+        <v>5.7552145891896783e-05</v>
       </c>
       <c r="AJ6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AK6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AL6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AM6">
-        <v>4.4054056265028036e-11</v>
+        <v>5.7938667138615732e-12</v>
       </c>
       <c r="AN6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AO6">
-        <v>1.1860636447137087e-08</v>
+        <v>5.2955105042556739e-10</v>
       </c>
       <c r="AP6">
-        <v>2.2204392428885768e-14</v>
+        <v>2.2202126480759602e-14</v>
       </c>
       <c r="AQ6">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="C7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="D7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="E7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="F7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="G7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="H7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="I7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="J7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="K7">
-        <v>2.2202822216341338e-14</v>
+        <v>5.2240096304654412e-08</v>
       </c>
       <c r="L7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="M7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="N7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="O7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="P7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="Q7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="R7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="S7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="T7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="U7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="V7">
-        <v>2.5537551705632207e-11</v>
+        <v>3.8416096432582309e-10</v>
       </c>
       <c r="W7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="X7">
-        <v>0.9969472252864312</v>
+        <v>0.99473471485350651</v>
       </c>
       <c r="Y7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="Z7">
-        <v>0.00013897739544229711</v>
+        <v>0.00013612956488200583</v>
       </c>
       <c r="AA7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AB7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AC7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AD7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AE7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AF7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AG7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AH7">
-        <v>2.2202822216341338e-14</v>
+        <v>9.6405593024088096e-12</v>
       </c>
       <c r="AI7">
-        <v>1.9002194544436031e-08</v>
+        <v>9.8420199499888602e-08</v>
       </c>
       <c r="AJ7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AK7">
-        <v>2.2202822216341338e-14</v>
+        <v>3.6973614654393201e-13</v>
       </c>
       <c r="AL7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AM7">
-        <v>0.00027630306623346119</v>
+        <v>0.0051240119106235492</v>
       </c>
       <c r="AN7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AO7">
-        <v>0.0026374752233838195</v>
+        <v>4.9926158104604546e-06</v>
       </c>
       <c r="AP7">
-        <v>2.2202822216341338e-14</v>
+        <v>2.2202077585855037e-14</v>
       </c>
       <c r="AQ7">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="C8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="D8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="E8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="F8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="G8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="H8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="I8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="J8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="K8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="L8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="M8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="N8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="O8">
-        <v>2.7666662666805852e-13</v>
+        <v>1.9433342475885459e-13</v>
       </c>
       <c r="P8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="Q8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="R8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="S8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="T8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="U8">
-        <v>0.99934130239274832</v>
+        <v>0.99984268881923843</v>
       </c>
       <c r="V8">
-        <v>2.3629371995504379e-11</v>
+        <v>3.2759161123019854e-12</v>
       </c>
       <c r="W8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="X8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="Y8">
-        <v>5.4952542712317358e-13</v>
+        <v>2.0017781630725509e-12</v>
       </c>
       <c r="Z8">
-        <v>0.00062380465682244956</v>
+        <v>8.2085020380485183e-06</v>
       </c>
       <c r="AA8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AB8">
-        <v>1.5735225710003211e-06</v>
+        <v>6.5162679843057188e-07</v>
       </c>
       <c r="AC8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AD8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AE8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AF8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AG8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AH8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AI8">
-        <v>3.3319391312448757e-05</v>
+        <v>0.00014845070198664972</v>
       </c>
       <c r="AJ8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AK8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AL8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AM8">
-        <v>6.1812080703720761e-13</v>
+        <v>6.1615045194137534e-12</v>
       </c>
       <c r="AN8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AO8">
-        <v>1.0761427292919376e-11</v>
+        <v>3.3759452022114642e-10</v>
       </c>
       <c r="AP8">
-        <v>2.2204104459599964e-14</v>
+        <v>2.2204375337034676e-14</v>
       </c>
       <c r="AQ8">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="C9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="D9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="E9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="F9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="G9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="H9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="I9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="J9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="K9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="L9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="M9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="N9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="O9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="P9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="Q9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="R9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="S9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="T9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="U9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="V9">
-        <v>1.5752261524307406e-07</v>
+        <v>3.6802211835645364e-07</v>
       </c>
       <c r="W9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="X9">
-        <v>2.4693976067671916e-11</v>
+        <v>8.539082972048735e-14</v>
       </c>
       <c r="Y9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="Z9">
-        <v>5.823000810061557e-13</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AA9">
-        <v>0.99550912885567922</v>
+        <v>0.97051908066448389</v>
       </c>
       <c r="AB9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AC9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AD9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AE9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AF9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AG9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AH9">
-        <v>0.003219734534044632</v>
+        <v>0.011372205506755976</v>
       </c>
       <c r="AI9">
-        <v>3.553827211633031e-07</v>
+        <v>1.5206320186775518e-07</v>
       </c>
       <c r="AJ9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AK9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AL9">
-        <v>7.2747011830921736e-07</v>
+        <v>1.35954222957239e-06</v>
       </c>
       <c r="AM9">
-        <v>0.0012677631902803812</v>
+        <v>0.018069019265565946</v>
       </c>
       <c r="AN9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AO9">
-        <v>2.1330185543723463e-06</v>
+        <v>3.7814934826233107e-05</v>
       </c>
       <c r="AP9">
-        <v>2.2202065245857033e-14</v>
+        <v>2.2204296066235165e-14</v>
       </c>
       <c r="AQ9">
         <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9.0440029675136508e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="C10">
-        <v>9.0440029675136508e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="D10">
-        <v>9.0440029675136508e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="E10">
-        <v>9.0440029675136973e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="F10">
-        <v>9.0440029675136973e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="G10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="H10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="I10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="J10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="K10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="L10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="M10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="N10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="O10">
-        <v>9.0440029675194938e-10</v>
+        <v>6.2458847853239432e-14</v>
       </c>
       <c r="P10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="Q10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="R10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="S10">
-        <v>9.0440029675136756e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="T10">
-        <v>0.23497438682124849</v>
+        <v>0.016966837145064438</v>
       </c>
       <c r="U10">
-        <v>0.23497438682124849</v>
+        <v>0.98290676976667501</v>
       </c>
       <c r="V10">
-        <v>9.9860615858184001e-07</v>
+        <v>1.0378011017031486e-12</v>
       </c>
       <c r="W10">
-        <v>9.0440029675136859e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="X10">
-        <v>9.0440029675285225e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="Y10">
-        <v>4.3531817243492918e-07</v>
+        <v>2.2308202392948084e-12</v>
       </c>
       <c r="Z10">
-        <v>0.18129736161239055</v>
+        <v>6.6155268614330246e-07</v>
       </c>
       <c r="AA10">
-        <v>9.0440029675136673e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AB10">
-        <v>0.1422734193027328</v>
+        <v>8.2574169023004779e-08</v>
       </c>
       <c r="AC10">
-        <v>9.0440029675136859e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AD10">
-        <v>9.0440029675136859e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AE10">
-        <v>9.0440029675136859e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AF10">
-        <v>9.0440029675136859e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AG10">
-        <v>9.0440029675136859e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AH10">
-        <v>9.0440029675136859e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AI10">
-        <v>0.20607000693328001</v>
+        <v>0.00012564874647291442</v>
       </c>
       <c r="AJ10">
-        <v>9.0440029675137077e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AK10">
-        <v>9.0440029675137046e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AL10">
-        <v>9.0440029675137211e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AM10">
-        <v>5.1498500272038504e-05</v>
+        <v>6.6835404060283467e-12</v>
       </c>
       <c r="AN10">
-        <v>9.0440029675137211e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AO10">
-        <v>0.00035747714368688155</v>
+        <v>2.0422943099587006e-10</v>
       </c>
       <c r="AP10">
-        <v>9.0440029675137211e-10</v>
+        <v>2.2202133967291252e-14</v>
       </c>
       <c r="AQ10">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="C11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="D11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="E11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="F11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="G11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="H11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="I11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="J11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="K11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="L11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="M11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="N11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="O11">
-        <v>9.3288481613337278e-13</v>
+        <v>3.8326922180256606e-13</v>
       </c>
       <c r="P11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="Q11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="R11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="S11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="T11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="U11">
-        <v>0.99987314683205941</v>
+        <v>0.99986833316738077</v>
       </c>
       <c r="V11">
-        <v>1.1878606237526469e-12</v>
+        <v>2.0119037761831507e-12</v>
       </c>
       <c r="W11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="X11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="Y11">
-        <v>7.1708540252405116e-13</v>
+        <v>1.4781613167673634e-12</v>
       </c>
       <c r="Z11">
-        <v>2.5005553697397114e-05</v>
+        <v>6.6640217190747928e-06</v>
       </c>
       <c r="AA11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AB11">
-        <v>2.7378041970724693e-07</v>
+        <v>2.7799734126016629e-07</v>
       </c>
       <c r="AC11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AD11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AE11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AF11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AG11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AH11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AI11">
-        <v>0.00010157374901397618</v>
+        <v>0.00012472469187655908</v>
       </c>
       <c r="AJ11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AK11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AL11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AM11">
-        <v>1.5134262316343209e-12</v>
+        <v>1.9342569522136025e-12</v>
       </c>
       <c r="AN11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AO11">
-        <v>7.9747773144216054e-11</v>
+        <v>1.1516447972367863e-10</v>
       </c>
       <c r="AP11">
-        <v>2.2204391818295332e-14</v>
+        <v>2.2204389213353996e-14</v>
       </c>
       <c r="AQ11">
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="C12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="D12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="E12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="F12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="G12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="H12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="I12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="J12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="K12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="L12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="M12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="N12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="O12">
-        <v>1.6313337613905685e-06</v>
+        <v>9.0616174018588024e-07</v>
       </c>
       <c r="P12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="Q12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="R12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="S12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="T12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="U12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="V12">
-        <v>0.00024647287329644489</v>
+        <v>0.0081706814628010153</v>
       </c>
       <c r="W12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="X12">
-        <v>8.548399852037909e-12</v>
+        <v>8.3828226552239197e-13</v>
       </c>
       <c r="Y12">
-        <v>8.2406879280310045e-08</v>
+        <v>5.5486934630378779e-07</v>
       </c>
       <c r="Z12">
-        <v>4.0132211433350945e-05</v>
+        <v>2.3747873504696595e-05</v>
       </c>
       <c r="AA12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AB12">
-        <v>0.9773154359274403</v>
+        <v>0.98037584269821831</v>
       </c>
       <c r="AC12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AD12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AE12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AF12">
-        <v>0.020000385328680547</v>
+        <v>0.0078033989519457475</v>
       </c>
       <c r="AG12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AH12">
-        <v>2.4259493564163144e-10</v>
+        <v>2.9669607279190833e-11</v>
       </c>
       <c r="AI12">
-        <v>0.0023958596466702366</v>
+        <v>0.0036248678168381448</v>
       </c>
       <c r="AJ12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AK12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AL12">
-        <v>1.9088658355974918e-11</v>
+        <v>1.2479544127161845e-10</v>
       </c>
       <c r="AM12">
-        <v>9.4048469576466778e-13</v>
+        <v>9.6360409086887592e-12</v>
       </c>
       <c r="AN12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AO12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AP12">
-        <v>2.2202352447147123e-14</v>
+        <v>2.2203469610406331e-14</v>
       </c>
       <c r="AQ12">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.023657789623334216</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="C13">
-        <v>0.023657789623334216</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="D13">
-        <v>0.023657789623334268</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="E13">
-        <v>0.023657789623334317</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="F13">
-        <v>0.023657789623334365</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="G13">
-        <v>0.023657789623334351</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="H13">
-        <v>0.023657789623334351</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="I13">
-        <v>0.023657789623334351</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="J13">
-        <v>0.023657789623334351</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="K13">
-        <v>0.023657789623334317</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="L13">
-        <v>0.023657789623334317</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="M13">
-        <v>0.023657789623334317</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="N13">
-        <v>0.023657789623334317</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="O13">
-        <v>0.023657789623348885</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="P13">
-        <v>0.023657789623334317</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="Q13">
-        <v>0.023657789623334317</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="R13">
-        <v>0.023657789623334317</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="S13">
-        <v>0.023657789623334327</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="T13">
-        <v>0.023657789623334327</v>
+        <v>0.016983227164264744</v>
       </c>
       <c r="U13">
-        <v>0.048288728210105436</v>
+        <v>0.98282934458291604</v>
       </c>
       <c r="V13">
-        <v>0.023657789703301187</v>
+        <v>4.0460963314726793e-11</v>
       </c>
       <c r="W13">
-        <v>0.023657789623334324</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="X13">
-        <v>0.023657789623346383</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="Y13">
-        <v>0.023657789625303641</v>
+        <v>1.8379953743095273e-12</v>
       </c>
       <c r="Z13">
-        <v>0.027455612737691315</v>
+        <v>5.4484477176632526e-05</v>
       </c>
       <c r="AA13">
-        <v>0.023657789623334299</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AB13">
-        <v>0.025212224626335759</v>
+        <v>4.9850999771317666e-05</v>
       </c>
       <c r="AC13">
-        <v>0.023657789623334213</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AD13">
-        <v>0.023657789623334213</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AE13">
-        <v>0.023657789623334213</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AF13">
-        <v>0.023657789623334213</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AG13">
-        <v>0.023657789623334213</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AH13">
-        <v>0.023657789623334268</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AI13">
-        <v>0.023705128484674234</v>
+        <v>8.3087318236834684e-05</v>
       </c>
       <c r="AJ13">
-        <v>0.023657789623334251</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AK13">
-        <v>0.023657789623334279</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AL13">
-        <v>0.023657789623334313</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AM13">
-        <v>0.02365778984139371</v>
+        <v>9.7438200677292949e-11</v>
       </c>
       <c r="AN13">
-        <v>0.023657789623334348</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AO13">
-        <v>0.023657879201136205</v>
+        <v>5.3171864400389021e-09</v>
       </c>
       <c r="AP13">
-        <v>0.023657789623334306</v>
+        <v>2.2202136405750231e-14</v>
       </c>
       <c r="AQ13">
         <v>20</v>
